--- a/TestList/5.0StudyExam.xlsx
+++ b/TestList/5.0StudyExam.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24525" windowHeight="12090"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
   <si>
     <t>序号
 （id）</t>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>//*[@id="Loginform"]/div/ul/li[3]/input</t>
+  </si>
+  <si>
+    <t>重跑</t>
   </si>
   <si>
     <t>study</t>
@@ -146,12 +149,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,77 +165,106 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,7 +277,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,52 +285,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,37 +316,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,145 +484,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,30 +526,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -565,15 +536,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,8 +558,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,10 +613,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,145 +625,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
@@ -1132,7 +1123,7 @@
     <col min="2" max="2" width="25" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="77" style="2" customWidth="1"/>
+    <col min="5" max="5" width="96" style="2" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -1170,7 +1161,7 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1193,7 +1184,7 @@
       <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1213,7 +1204,7 @@
       <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1234,7 +1225,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:6">
@@ -1242,16 +1233,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -1262,19 +1253,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1282,16 +1273,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -1302,7 +1293,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
@@ -1310,8 +1301,8 @@
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>29</v>
+      <c r="E9" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -1322,7 +1313,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>19</v>
@@ -1330,8 +1321,8 @@
       <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>31</v>
+      <c r="E10" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -1342,7 +1333,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
@@ -1351,7 +1342,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
@@ -1362,7 +1353,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>19</v>
@@ -1371,7 +1362,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -1382,7 +1373,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>19</v>
@@ -1391,7 +1382,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
@@ -1402,16 +1393,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>9</v>
@@ -1419,6 +1410,9 @@
     </row>
   </sheetData>
   <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D27:D28">
+      <formula1>"URL、Xpath"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5 D7 D9 D10 D11 D12 D13 D14 D2:D3 D15:D26">
       <formula1>"URL,Xpath"</formula1>
     </dataValidation>
@@ -1428,17 +1422,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C29">
       <formula1>"访问,输入,点击,等待"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D27:D28">
-      <formula1>"URL、Xpath"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D29:D65525">
       <formula1>"xpath,name,id,css,text"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="http://xy.59iedu.com/home/home/login" tooltip="http://xy.59iedu.com/home/home/login"/>
-    <hyperlink ref="E8" r:id="rId2" display="http://xy.59iedu.com/Study/ExamList/Enter?Id=e6af5d2f204942c7aa3e9b214e55e48d"/>
-  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
